--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1411004943373005</v>
+        <v>0.1279039517177195</v>
       </c>
       <c r="C2">
-        <v>1.533701102348875</v>
+        <v>1.47408018424297</v>
       </c>
       <c r="D2">
-        <v>9.068790367239613</v>
+        <v>8.675642101351979</v>
       </c>
       <c r="E2">
-        <v>3.01144323659597</v>
+        <v>2.945444296087091</v>
       </c>
       <c r="F2">
-        <v>3.078925155605462</v>
+        <v>3.008801495394956</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05469939384596218</v>
+        <v>0.04717506928171853</v>
       </c>
       <c r="C3">
-        <v>1.557291767126519</v>
+        <v>1.491543766192013</v>
       </c>
       <c r="D3">
-        <v>8.857586116379697</v>
+        <v>8.455526954849582</v>
       </c>
       <c r="E3">
-        <v>2.976169705574549</v>
+        <v>2.907838880483164</v>
       </c>
       <c r="F3">
-        <v>3.049151324110893</v>
+        <v>2.975876279823447</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4378785488549732</v>
+        <v>-0.4214464237818173</v>
       </c>
       <c r="C4">
-        <v>1.062164026707324</v>
+        <v>1.016004021736437</v>
       </c>
       <c r="D4">
-        <v>3.717586809534389</v>
+        <v>3.540968988508833</v>
       </c>
       <c r="E4">
-        <v>1.928104460223665</v>
+        <v>1.881746260394539</v>
       </c>
       <c r="F4">
-        <v>1.926504657605541</v>
+        <v>1.879233752200579</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.04042601127075141</v>
+        <v>-0.04213737398666674</v>
       </c>
       <c r="C5">
-        <v>0.8192398177933661</v>
+        <v>0.7820104901831507</v>
       </c>
       <c r="D5">
-        <v>1.05367121851149</v>
+        <v>1.001266313089072</v>
       </c>
       <c r="E5">
-        <v>1.026484884697038</v>
+        <v>1.000632956227743</v>
       </c>
       <c r="F5">
-        <v>1.053794787274394</v>
+        <v>1.025717081543998</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05528406595475435</v>
+        <v>-0.0547463289693642</v>
       </c>
       <c r="C6">
-        <v>0.8322225508121011</v>
+        <v>0.7907933146236926</v>
       </c>
       <c r="D6">
-        <v>1.135131728021583</v>
+        <v>1.075494849714573</v>
       </c>
       <c r="E6">
-        <v>1.065425608863229</v>
+        <v>1.037060677932865</v>
       </c>
       <c r="F6">
-        <v>1.094837006437775</v>
+        <v>1.063992901354768</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1134522600592015</v>
+        <v>-0.1059385590168174</v>
       </c>
       <c r="C7">
-        <v>0.6900927847211794</v>
+        <v>0.6529650943868757</v>
       </c>
       <c r="D7">
-        <v>0.8092675530936774</v>
+        <v>0.7643346331479901</v>
       </c>
       <c r="E7">
-        <v>0.899592993021665</v>
+        <v>0.8742623365718039</v>
       </c>
       <c r="F7">
-        <v>0.9198754787428882</v>
+        <v>0.8929794736955126</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06917055283052097</v>
+        <v>-0.06115313360779569</v>
       </c>
       <c r="C8">
-        <v>0.7830356610777467</v>
+        <v>0.7409233030117504</v>
       </c>
       <c r="D8">
-        <v>0.9403726249979492</v>
+        <v>0.8853216378027108</v>
       </c>
       <c r="E8">
-        <v>0.9697281191127486</v>
+        <v>0.9409153191455174</v>
       </c>
       <c r="F8">
-        <v>0.9989797780370767</v>
+        <v>0.9678227124871316</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.028890616338747</v>
+        <v>0.04633068755579241</v>
       </c>
       <c r="C9">
-        <v>0.7332650184545005</v>
+        <v>0.7066816895393113</v>
       </c>
       <c r="D9">
-        <v>0.7678482670620963</v>
+        <v>0.7257841232605365</v>
       </c>
       <c r="E9">
-        <v>0.8762695173644329</v>
+        <v>0.8519296468961135</v>
       </c>
       <c r="F9">
-        <v>0.9065320099243582</v>
+        <v>0.8785670701173324</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05175934280428588</v>
+        <v>-0.03682260890791801</v>
       </c>
       <c r="C10">
-        <v>0.6138674668407937</v>
+        <v>0.5844290800941564</v>
       </c>
       <c r="D10">
-        <v>0.7566094456283526</v>
+        <v>0.7081477771230911</v>
       </c>
       <c r="E10">
-        <v>0.869832998700528</v>
+        <v>0.841515167494378</v>
       </c>
       <c r="F10">
-        <v>0.9010688450113647</v>
+        <v>0.8702166433441642</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01611909864476435</v>
+        <v>-0.00294460816098668</v>
       </c>
       <c r="C11">
-        <v>0.5481083954763392</v>
+        <v>0.5209809220943237</v>
       </c>
       <c r="D11">
-        <v>0.4950724413905524</v>
+        <v>0.4617339020710022</v>
       </c>
       <c r="E11">
-        <v>0.7036138439446401</v>
+        <v>0.6795100455997706</v>
       </c>
       <c r="F11">
-        <v>0.7321523070510798</v>
+        <v>0.7051542787521982</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1279039517177195</v>
+        <v>0.04717506928171853</v>
       </c>
       <c r="C2">
-        <v>1.47408018424297</v>
+        <v>1.491543766192013</v>
       </c>
       <c r="D2">
-        <v>8.675642101351979</v>
+        <v>8.455526954849582</v>
       </c>
       <c r="E2">
-        <v>2.945444296087091</v>
+        <v>2.907838880483164</v>
       </c>
       <c r="F2">
-        <v>3.008801495394956</v>
+        <v>2.975876279823447</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04717506928171853</v>
+        <v>-0.4214464237818173</v>
       </c>
       <c r="C3">
-        <v>1.491543766192013</v>
+        <v>1.016004021736437</v>
       </c>
       <c r="D3">
-        <v>8.455526954849582</v>
+        <v>3.540968988508833</v>
       </c>
       <c r="E3">
-        <v>2.907838880483164</v>
+        <v>1.881746260394539</v>
       </c>
       <c r="F3">
-        <v>2.975876279823447</v>
+        <v>1.879233752200579</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4214464237818173</v>
+        <v>-0.04213737398666674</v>
       </c>
       <c r="C4">
-        <v>1.016004021736437</v>
+        <v>0.7820104901831507</v>
       </c>
       <c r="D4">
-        <v>3.540968988508833</v>
+        <v>1.001266313089072</v>
       </c>
       <c r="E4">
-        <v>1.881746260394539</v>
+        <v>1.000632956227743</v>
       </c>
       <c r="F4">
-        <v>1.879233752200579</v>
+        <v>1.025717081543998</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.04213737398666674</v>
+        <v>-0.0547463289693642</v>
       </c>
       <c r="C5">
-        <v>0.7820104901831507</v>
+        <v>0.7907933146236926</v>
       </c>
       <c r="D5">
-        <v>1.001266313089072</v>
+        <v>1.075494849714573</v>
       </c>
       <c r="E5">
-        <v>1.000632956227743</v>
+        <v>1.037060677932865</v>
       </c>
       <c r="F5">
-        <v>1.025717081543998</v>
+        <v>1.063992901354768</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0547463289693642</v>
+        <v>-0.1059385590168174</v>
       </c>
       <c r="C6">
-        <v>0.7907933146236926</v>
+        <v>0.6529650943868757</v>
       </c>
       <c r="D6">
-        <v>1.075494849714573</v>
+        <v>0.7643346331479901</v>
       </c>
       <c r="E6">
-        <v>1.037060677932865</v>
+        <v>0.8742623365718039</v>
       </c>
       <c r="F6">
-        <v>1.063992901354768</v>
+        <v>0.8929794736955126</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1059385590168174</v>
+        <v>-0.06115313360779569</v>
       </c>
       <c r="C7">
-        <v>0.6529650943868757</v>
+        <v>0.7409233030117504</v>
       </c>
       <c r="D7">
-        <v>0.7643346331479901</v>
+        <v>0.8853216378027108</v>
       </c>
       <c r="E7">
-        <v>0.8742623365718039</v>
+        <v>0.9409153191455174</v>
       </c>
       <c r="F7">
-        <v>0.8929794736955126</v>
+        <v>0.9678227124871316</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06115313360779569</v>
+        <v>0.04633068755579241</v>
       </c>
       <c r="C8">
-        <v>0.7409233030117504</v>
+        <v>0.7066816895393113</v>
       </c>
       <c r="D8">
-        <v>0.8853216378027108</v>
+        <v>0.7257841232605365</v>
       </c>
       <c r="E8">
-        <v>0.9409153191455174</v>
+        <v>0.8519296468961135</v>
       </c>
       <c r="F8">
-        <v>0.9678227124871316</v>
+        <v>0.8785670701173324</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04633068755579241</v>
+        <v>-0.03682260890791801</v>
       </c>
       <c r="C9">
-        <v>0.7066816895393113</v>
+        <v>0.5844290800941564</v>
       </c>
       <c r="D9">
-        <v>0.7257841232605365</v>
+        <v>0.7081477771230911</v>
       </c>
       <c r="E9">
-        <v>0.8519296468961135</v>
+        <v>0.841515167494378</v>
       </c>
       <c r="F9">
-        <v>0.8785670701173324</v>
+        <v>0.8702166433441642</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03682260890791801</v>
+        <v>-0.00294460816098668</v>
       </c>
       <c r="C10">
-        <v>0.5844290800941564</v>
+        <v>0.5209809220943237</v>
       </c>
       <c r="D10">
-        <v>0.7081477771230911</v>
+        <v>0.4617339020710022</v>
       </c>
       <c r="E10">
-        <v>0.841515167494378</v>
+        <v>0.6795100455997706</v>
       </c>
       <c r="F10">
-        <v>0.8702166433441642</v>
+        <v>0.7051542787521982</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00294460816098668</v>
+        <v>-0.04202418731684543</v>
       </c>
       <c r="C11">
-        <v>0.5209809220943237</v>
+        <v>0.6363847651420124</v>
       </c>
       <c r="D11">
-        <v>0.4617339020710022</v>
+        <v>0.7103350813464621</v>
       </c>
       <c r="E11">
-        <v>0.6795100455997706</v>
+        <v>0.8428137880614329</v>
       </c>
       <c r="F11">
-        <v>0.7051542787521982</v>
+        <v>0.8761372436890558</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04717506928171853</v>
+        <v>0.1279039517177195</v>
       </c>
       <c r="C2">
-        <v>1.491543766192013</v>
+        <v>1.47408018424297</v>
       </c>
       <c r="D2">
-        <v>8.455526954849582</v>
+        <v>8.675642101351979</v>
       </c>
       <c r="E2">
-        <v>2.907838880483164</v>
+        <v>2.945444296087091</v>
       </c>
       <c r="F2">
-        <v>2.975876279823447</v>
+        <v>3.008801495394956</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.4214464237818173</v>
+        <v>0.04717506928171853</v>
       </c>
       <c r="C3">
-        <v>1.016004021736437</v>
+        <v>1.491543766192013</v>
       </c>
       <c r="D3">
-        <v>3.540968988508833</v>
+        <v>8.455526954849582</v>
       </c>
       <c r="E3">
-        <v>1.881746260394539</v>
+        <v>2.907838880483164</v>
       </c>
       <c r="F3">
-        <v>1.879233752200579</v>
+        <v>2.975876279823447</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.04213737398666674</v>
+        <v>-0.4214464237818173</v>
       </c>
       <c r="C4">
-        <v>0.7820104901831507</v>
+        <v>1.016004021736437</v>
       </c>
       <c r="D4">
-        <v>1.001266313089072</v>
+        <v>3.540968988508833</v>
       </c>
       <c r="E4">
-        <v>1.000632956227743</v>
+        <v>1.881746260394539</v>
       </c>
       <c r="F4">
-        <v>1.025717081543998</v>
+        <v>1.879233752200579</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0547463289693642</v>
+        <v>-0.04213737398666674</v>
       </c>
       <c r="C5">
-        <v>0.7907933146236926</v>
+        <v>0.7820104901831507</v>
       </c>
       <c r="D5">
-        <v>1.075494849714573</v>
+        <v>1.001266313089072</v>
       </c>
       <c r="E5">
-        <v>1.037060677932865</v>
+        <v>1.000632956227743</v>
       </c>
       <c r="F5">
-        <v>1.063992901354768</v>
+        <v>1.025717081543998</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1059385590168174</v>
+        <v>-0.0547463289693642</v>
       </c>
       <c r="C6">
-        <v>0.6529650943868757</v>
+        <v>0.7907933146236926</v>
       </c>
       <c r="D6">
-        <v>0.7643346331479901</v>
+        <v>1.075494849714573</v>
       </c>
       <c r="E6">
-        <v>0.8742623365718039</v>
+        <v>1.037060677932865</v>
       </c>
       <c r="F6">
-        <v>0.8929794736955126</v>
+        <v>1.063992901354768</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.06115313360779569</v>
+        <v>-0.1059385590168174</v>
       </c>
       <c r="C7">
-        <v>0.7409233030117504</v>
+        <v>0.6529650943868757</v>
       </c>
       <c r="D7">
-        <v>0.8853216378027108</v>
+        <v>0.7643346331479901</v>
       </c>
       <c r="E7">
-        <v>0.9409153191455174</v>
+        <v>0.8742623365718039</v>
       </c>
       <c r="F7">
-        <v>0.9678227124871316</v>
+        <v>0.8929794736955126</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04633068755579241</v>
+        <v>-0.06115313360779569</v>
       </c>
       <c r="C8">
-        <v>0.7066816895393113</v>
+        <v>0.7409233030117504</v>
       </c>
       <c r="D8">
-        <v>0.7257841232605365</v>
+        <v>0.8853216378027108</v>
       </c>
       <c r="E8">
-        <v>0.8519296468961135</v>
+        <v>0.9409153191455174</v>
       </c>
       <c r="F8">
-        <v>0.8785670701173324</v>
+        <v>0.9678227124871316</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03682260890791801</v>
+        <v>0.04633068755579241</v>
       </c>
       <c r="C9">
-        <v>0.5844290800941564</v>
+        <v>0.7066816895393113</v>
       </c>
       <c r="D9">
-        <v>0.7081477771230911</v>
+        <v>0.7257841232605365</v>
       </c>
       <c r="E9">
-        <v>0.841515167494378</v>
+        <v>0.8519296468961135</v>
       </c>
       <c r="F9">
-        <v>0.8702166433441642</v>
+        <v>0.8785670701173324</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.00294460816098668</v>
+        <v>-0.03682260890791801</v>
       </c>
       <c r="C10">
-        <v>0.5209809220943237</v>
+        <v>0.5844290800941564</v>
       </c>
       <c r="D10">
-        <v>0.4617339020710022</v>
+        <v>0.7081477771230911</v>
       </c>
       <c r="E10">
-        <v>0.6795100455997706</v>
+        <v>0.841515167494378</v>
       </c>
       <c r="F10">
-        <v>0.7051542787521982</v>
+        <v>0.8702166433441642</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04202418731684543</v>
+        <v>-0.00294460816098668</v>
       </c>
       <c r="C11">
-        <v>0.6363847651420124</v>
+        <v>0.5209809220943237</v>
       </c>
       <c r="D11">
-        <v>0.7103350813464621</v>
+        <v>0.4617339020710022</v>
       </c>
       <c r="E11">
-        <v>0.8428137880614329</v>
+        <v>0.6795100455997706</v>
       </c>
       <c r="F11">
-        <v>0.8761372436890558</v>
+        <v>0.7051542787521982</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
